--- a/Data Entry/Zooplankton/Zooplankton Collection/JUM Zooplankton Collection Data.xlsx
+++ b/Data Entry/Zooplankton/Zooplankton Collection/JUM Zooplankton Collection Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjf63\Documents\GitHub\triploid-walleye-labwork\Data Entry\Zooplankton\Zooplankton Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BANGIRAS/Documents/GitHub/triploid-walleye-labwork/Data Entry/Zooplankton/Zooplankton Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A13A7-CCCE-0B47-ACCC-2A71B88F0F23}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,84 +25,102 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Collin Farrell</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-3 Character Waterbody Code + MMDDYY + L (L is code for limnology)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3 Character Waterbody Code + MMDDYY + L (L is code for limnology)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-YYYYMMDD</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYYMMDD</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -118,14 +137,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sample id on zooplankton sampling data sheet</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -142,14 +161,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 military time</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -166,7 +185,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 max depth
@@ -174,150 +193,251 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-IF Mesh = 153, WIS
-IF Mesh = 500, SIM</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">IF Mesh = 153, WIS
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IF Mesh = 500, SIM</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-IF Mesh = 153, 0.2
-IF Mesh = 500, 0.5</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">IF Mesh = 153, 0.2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IF Mesh = 500, 0.5</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-153 or 500</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>153 or 500</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Always A</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Always A</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-If Dilution (ml) = ---, NA
-IF not record number</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If Dilution (ml) = ---, NA
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>IF not record number</t>
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Always ZEISS</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Always ZEISS</t>
         </r>
       </text>
     </comment>
@@ -326,7 +446,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="61">
   <si>
     <t>limnoid</t>
   </si>
@@ -389,13 +509,133 @@
   </si>
   <si>
     <t>JUM081418L</t>
+  </si>
+  <si>
+    <t>JUM02</t>
+  </si>
+  <si>
+    <t>JUM03</t>
+  </si>
+  <si>
+    <t>JUM04</t>
+  </si>
+  <si>
+    <t>JUM05</t>
+  </si>
+  <si>
+    <t>JUM091818L</t>
+  </si>
+  <si>
+    <t>JUM111418L</t>
+  </si>
+  <si>
+    <t>JuM052919L</t>
+  </si>
+  <si>
+    <t>JUM062019L</t>
+  </si>
+  <si>
+    <t>JUM071819L</t>
+  </si>
+  <si>
+    <t>JUM081418Z02</t>
+  </si>
+  <si>
+    <t>JUM081418Z03</t>
+  </si>
+  <si>
+    <t>JUM081418Z04</t>
+  </si>
+  <si>
+    <t>JUM081418Z05</t>
+  </si>
+  <si>
+    <t>JUM091818Z01</t>
+  </si>
+  <si>
+    <t>JUM091818Z02</t>
+  </si>
+  <si>
+    <t>JUM091818Z03</t>
+  </si>
+  <si>
+    <t>JUM091818Z04</t>
+  </si>
+  <si>
+    <t>JUM091818Z05</t>
+  </si>
+  <si>
+    <t>JUM111418Z01</t>
+  </si>
+  <si>
+    <t>JUM111418Z02</t>
+  </si>
+  <si>
+    <t>JUM111418Z03</t>
+  </si>
+  <si>
+    <t>JUM111418Z04</t>
+  </si>
+  <si>
+    <t>JUM111418Z05</t>
+  </si>
+  <si>
+    <t>JUM052919Z01</t>
+  </si>
+  <si>
+    <t>JUM052919Z03</t>
+  </si>
+  <si>
+    <t>JUM052919Z04</t>
+  </si>
+  <si>
+    <t>JUM052919Z05</t>
+  </si>
+  <si>
+    <t>JUM052919Z06</t>
+  </si>
+  <si>
+    <t>JUM062019Z01</t>
+  </si>
+  <si>
+    <t>JUM062019Z02</t>
+  </si>
+  <si>
+    <t>JUM062019Z03</t>
+  </si>
+  <si>
+    <t>JUM062019Z04</t>
+  </si>
+  <si>
+    <t>JUM062019Z05</t>
+  </si>
+  <si>
+    <t>JUM062019Z06</t>
+  </si>
+  <si>
+    <t>JUM071819Z01</t>
+  </si>
+  <si>
+    <t>JUM071819Z02</t>
+  </si>
+  <si>
+    <t>JUM071819Z03</t>
+  </si>
+  <si>
+    <t>JUM071819Z04</t>
+  </si>
+  <si>
+    <t>JUM071819Z05</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,21 +648,40 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -437,10 +696,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,20 +989,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="8.83203125" style="2"/>
+    <col min="12" max="12" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,44 +1048,1270 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>20180814</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1243</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
-        <v>0.2</v>
-      </c>
-      <c r="J2">
-        <v>153</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>153</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20180814</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1237</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>153</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20180814</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1259</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>153</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20180814</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1251</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>153</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20180814</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>153</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1748</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>153</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1744</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>153</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1753</v>
+      </c>
+      <c r="G9" s="2">
+        <v>3</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>153</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1750</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>153</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1540</v>
+      </c>
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>153</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20181114</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1521</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2">
+        <v>40</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20181114</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1529</v>
+      </c>
+      <c r="G13" s="2">
+        <v>4</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>153</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2">
+        <v>30</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20181114</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1504</v>
+      </c>
+      <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>153</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2">
+        <v>30</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20181114</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1510</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>153</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2">
+        <v>30</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20181114</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1440</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>153</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="2">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1347</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>153</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2">
+        <v>100</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1401</v>
+      </c>
+      <c r="G18" s="2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>153</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2">
+        <v>100</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1353</v>
+      </c>
+      <c r="G19" s="2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>153</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="2">
+        <v>150</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1330</v>
+      </c>
+      <c r="G20" s="2">
+        <v>5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>153</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2">
+        <v>100</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1417</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J21" s="2">
+        <v>500</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="2">
+        <v>1241</v>
+      </c>
+      <c r="G22" s="2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>153</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="2">
+        <v>100</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1234</v>
+      </c>
+      <c r="G23" s="2">
+        <v>5</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>153</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L23" s="2">
+        <v>100</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1253</v>
+      </c>
+      <c r="G24" s="2">
+        <v>5</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>153</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" s="2">
+        <v>100</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1244</v>
+      </c>
+      <c r="G25" s="2">
+        <v>5</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>153</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="2">
+        <v>100</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2">
+        <v>5</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>153</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="2">
+        <v>100</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1300</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2">
+        <v>20190718</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1244</v>
+      </c>
+      <c r="G28" s="2">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>153</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2">
+        <v>20190718</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1236</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>153</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="2">
+        <v>100</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>20190718</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1303</v>
+      </c>
+      <c r="G30" s="2">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>153</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="2">
+        <v>100</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>20190718</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1250</v>
+      </c>
+      <c r="G31" s="2">
+        <v>5</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>153</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="2">
+        <v>125</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2">
+        <v>20190718</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1224</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>153</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="2">
+        <v>125</v>
+      </c>
+      <c r="M32" s="2" t="s">
         <v>19</v>
       </c>
     </row>
